--- a/data/trans_dic/P54_A_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66,44%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>69,72%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>73,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,21%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>69,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 21,26</t>
+          <t>7,62; 27,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,22; 72,85</t>
+          <t>55,22; 72,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58,66; 71,01</t>
+          <t>57,17; 73,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 17,76</t>
+          <t>8,5; 18,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,51; 74,74</t>
+          <t>61,9; 76,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,11; 79,79</t>
+          <t>66,68; 79,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,2</t>
+          <t>9,88; 20,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,98; 72,17</t>
+          <t>61,39; 71,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 74,05</t>
+          <t>64,61; 74,18</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>71,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>81,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>76,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>76,82%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 19,74</t>
+          <t>9,05; 20,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,53; 78,6</t>
+          <t>61,4; 78,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,98; 79,52</t>
+          <t>62,7; 80,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 30,08</t>
+          <t>11,98; 25,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>77,4; 86,26</t>
+          <t>72,33; 85,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,39; 87,94</t>
+          <t>73,85; 86,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,06; 23,1</t>
+          <t>11,87; 21,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,3; 81,17</t>
+          <t>70,65; 81,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,23; 82,59</t>
+          <t>70,81; 81,79</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>75,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>82,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>74,5%</t>
+          <t>82,57%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 50,59</t>
+          <t>0,0; 66,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,79; 84,81</t>
+          <t>53,43; 91,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,6; 77,69</t>
+          <t>53,25; 90,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 32,88</t>
+          <t>6,72; 35,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,52; 89,7</t>
+          <t>67,56; 93,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,89; 92,07</t>
+          <t>76,28; 97,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 35,92</t>
+          <t>9,1; 47,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,59; 83,64</t>
+          <t>66,87; 89,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,65; 82,15</t>
+          <t>70,57; 91,05</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>67,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>73,93%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,47</t>
+          <t>10,64; 24,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,3; 73,65</t>
+          <t>61,43; 73,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,32; 73,1</t>
+          <t>63,62; 74,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,38</t>
+          <t>11,71; 19,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,1; 78,86</t>
+          <t>70,3; 79,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,84; 82,17</t>
+          <t>73,78; 82,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,11</t>
+          <t>12,37; 20,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,9; 75,49</t>
+          <t>68,06; 75,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,41; 76,65</t>
+          <t>70,4; 77,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>51240</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>268821</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>236341</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>351451</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>306460</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>105378</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>620272</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>542801</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27211; 99776</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>235084; 307769</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>207075; 266902</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35786; 78863</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>311754; 383584</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>277424; 332461</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76944; 161305</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>570512; 663738</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>502849; 577346</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>42310</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>253967</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>226444</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>60713</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>336551</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270240</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>103023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>590518</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>496684</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26946; 61058</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>218806; 280830</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>196745; 251359</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40606; 87063</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>304253; 358780</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>245732; 288862</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75599; 138331</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>548922; 632398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>457847; 528780</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22408</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76638</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58926</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13973</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>80759</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>74138</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36381</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157397</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>133064</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 56632</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54378; 93490</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42386; 71822</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5406; 28677</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66175; 91905</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>62210; 79223</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15038; 77786</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>133550; 177840</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>113730; 146724</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>115957</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>599426</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>521711</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>128824</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>768761</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>650837</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>244781</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1368186</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1172549</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78686; 179730</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>542919; 649183</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>480732; 566582</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>98432; 166894</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>718638; 810473</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>612675; 681626</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>195553; 319039</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1297328; 1431823</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1116601; 1223809</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>